--- a/biology/Zoologie/Anthicidae/Anthicidae.xlsx
+++ b/biology/Zoologie/Anthicidae/Anthicidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anthicidae sont une vaste famille d'insectes coléoptères qui ressemblent superficiellement à des fourmis. C'est surtout le prothorax arrondi, (mimant la forme du thorax entier d'une fourmi) ainsi que la forme de la tête qui font penser à des fourmis. L'apparence des antennes et la légère pilosité du corps y contribuent également.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ubiquiste : les nombreuses espèces d'Anthicidae peuvent occuper toutes les zones compatibles avec la vie des insectes.
 </t>
@@ -542,7 +556,9 @@
           <t>Nutrition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes sont omnivores, se nourrissant de petits invertébrés, de leurs larves ou de leurs œufs, aussi de pollen, de champignons...
 Les larves des Anthicidae peuvent être omnivores, prédatrices ou consommatrices de champignons.
@@ -574,7 +590,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Ischaliidae</t>
         </is>
@@ -604,14 +622,16 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En Europe, selon Fauna Europaea                                      (17 janv. 2015)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En Europe, selon Fauna Europaea                                      (17 janv. 2015) :
 Anthicinae
 Macratriinae
 Steropinae
 Tomoderinae
-Selon BioLib                    (17 janv. 2015)[2] :
+Selon BioLib                    (17 janv. 2015) :
 Anthicinae Latreille, 1819
 Copobaeninae Abdullah, 1969
 Eurygeniinae LeConte, 1862
